--- a/Pictures/Scalability.xlsx
+++ b/Pictures/Scalability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\UT AUSTIN\Sha Lab\Research\Placement\Placement\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39178513-219D-4D76-9A89-55831EBA452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABE7D8-1CDC-4F18-88DD-E27450E45348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,13 +1517,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
